--- a/doors-detector/results/house2_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house2_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8203041417529181</v>
+        <v>0.7985640478698993</v>
       </c>
       <c r="F5" t="n">
         <v>1190</v>
       </c>
       <c r="G5" t="n">
-        <v>1025</v>
+        <v>1010</v>
       </c>
       <c r="H5" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.4594396700068836</v>
+        <v>0.4146753224374192</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7166028521542018</v>
+        <v>0.7303093384041262</v>
       </c>
       <c r="F7" t="n">
         <v>175</v>
@@ -664,7 +664,7 @@
         <v>152</v>
       </c>
       <c r="H7" t="n">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7936424981775684</v>
+        <v>0.7819552715836614</v>
       </c>
       <c r="F8" t="n">
         <v>1190</v>
       </c>
       <c r="G8" t="n">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="H8" t="n">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.4825774578854795</v>
+        <v>0.4669752632987928</v>
       </c>
       <c r="F9" t="n">
         <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H9" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.7540557939740468</v>
+        <v>0.7506625713806017</v>
       </c>
       <c r="F10" t="n">
         <v>175</v>
       </c>
       <c r="G10" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H10" t="n">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.7970118322804487</v>
+        <v>0.7796266304846259</v>
       </c>
       <c r="F11" t="n">
         <v>1190</v>
       </c>
       <c r="G11" t="n">
-        <v>1018</v>
+        <v>999</v>
       </c>
       <c r="H11" t="n">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.4917878201758287</v>
+        <v>0.5030686180518594</v>
       </c>
       <c r="F12" t="n">
         <v>32</v>
@@ -824,7 +824,7 @@
         <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7747138606766675</v>
+        <v>0.7673904441894743</v>
       </c>
       <c r="F13" t="n">
         <v>175</v>
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.7861821405346524</v>
+        <v>0.7850393504593979</v>
       </c>
       <c r="F14" t="n">
         <v>1190</v>
       </c>
       <c r="G14" t="n">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="H14" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.5724136900138166</v>
+        <v>0.5794203273164831</v>
       </c>
       <c r="F15" t="n">
         <v>32</v>
@@ -920,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="H15" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7647766171282887</v>
+        <v>0.8042113209123302</v>
       </c>
       <c r="F16" t="n">
         <v>175</v>
       </c>
       <c r="G16" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H16" t="n">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7991262803802046</v>
+        <v>0.7780683495745179</v>
       </c>
       <c r="F17" t="n">
         <v>1190</v>
       </c>
       <c r="G17" t="n">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="H17" t="n">
-        <v>168</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4756344776302759</v>
+        <v>0.526890797833882</v>
       </c>
       <c r="F18" t="n">
         <v>32</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7916216890903669</v>
+        <v>0.7609116583336785</v>
       </c>
       <c r="F19" t="n">
         <v>175</v>
       </c>
       <c r="G19" t="n">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H19" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.775646419919953</v>
+        <v>0.8211646563628899</v>
       </c>
       <c r="F20" t="n">
         <v>1190</v>
       </c>
       <c r="G20" t="n">
-        <v>1004</v>
+        <v>1038</v>
       </c>
       <c r="H20" t="n">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6100305313785267</v>
+        <v>0.6287771867658885</v>
       </c>
       <c r="F21" t="n">
         <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H21" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.7899048593636038</v>
+        <v>0.7870953659457879</v>
       </c>
       <c r="F22" t="n">
         <v>175</v>
       </c>
       <c r="G22" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7882993629558258</v>
+        <v>0.7960405541080028</v>
       </c>
       <c r="F23" t="n">
         <v>1190</v>
       </c>
       <c r="G23" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="H23" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.6342048681315108</v>
+        <v>0.640057140652612</v>
       </c>
       <c r="F24" t="n">
         <v>32</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.7828659184229209</v>
+        <v>0.7996720502096176</v>
       </c>
       <c r="F25" t="n">
         <v>175</v>
       </c>
       <c r="G25" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H25" t="n">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
